--- a/NanoDegreeProgress.xlsx
+++ b/NanoDegreeProgress.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="248">
   <si>
     <t>Programming Fundamentals and the Web</t>
   </si>
@@ -2072,9 +2072,6 @@
   </si>
   <si>
     <t>Build a Portfolio Site</t>
-  </si>
-  <si>
-    <t>60-17</t>
   </si>
 </sst>
 </file>
@@ -2959,8 +2956,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3149,8 +3146,9 @@
       <c r="G10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
-        <v>248</v>
+      <c r="H10">
+        <f>60-17</f>
+        <v>43</v>
       </c>
       <c r="L10" s="35"/>
     </row>
@@ -3170,6 +3168,10 @@
       <c r="G11" s="37" t="s">
         <v>21</v>
       </c>
+      <c r="H11">
+        <f>60-23</f>
+        <v>37</v>
+      </c>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12">
@@ -3187,6 +3189,9 @@
       </c>
       <c r="G12" s="37" t="s">
         <v>21</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="L12" s="35"/>
     </row>

--- a/NanoDegreeProgress.xlsx
+++ b/NanoDegreeProgress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="40" windowWidth="25040" windowHeight="14280" tabRatio="979" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14440" tabRatio="979" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Installs" sheetId="3" r:id="rId1"/>
@@ -2956,8 +2956,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3208,8 +3208,12 @@
       <c r="F13" s="2">
         <v>42989</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="37" t="s">
         <v>21</v>
+      </c>
+      <c r="H13">
+        <f>60-30</f>
+        <v>30</v>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -3226,8 +3230,12 @@
       <c r="F14" s="2">
         <v>42989</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="37" t="s">
         <v>21</v>
+      </c>
+      <c r="H14">
+        <f>60-18</f>
+        <v>42</v>
       </c>
       <c r="L14" s="35"/>
     </row>
@@ -3244,7 +3252,7 @@
       <c r="F15" s="2">
         <v>42989</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="37" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="35"/>
@@ -3515,7 +3523,7 @@
       <c r="F33" s="12">
         <v>42990</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4271,7 +4279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B36"/>
     </sheetView>
   </sheetViews>

--- a/NanoDegreeProgress.xlsx
+++ b/NanoDegreeProgress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14440" tabRatio="979" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="979" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Installs" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Deeper into SQL" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Working with CRUD" sheetId="7" r:id="rId7"/>
+    <sheet name="React" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="274">
   <si>
     <t>Programming Fundamentals and the Web</t>
   </si>
@@ -2072,6 +2074,84 @@
   </si>
   <si>
     <t>Build a Portfolio Site</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Welcome to React NanoDegree Program</t>
+  </si>
+  <si>
+    <t>React Fundamentals</t>
+  </si>
+  <si>
+    <t>Why React</t>
+  </si>
+  <si>
+    <t>Rendering UI with React</t>
+  </si>
+  <si>
+    <t>State Management</t>
+  </si>
+  <si>
+    <t>Render UI with External Data</t>
+  </si>
+  <si>
+    <t>Managing App Location with React Router</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>MyReads: A Book Tracking App</t>
+  </si>
+  <si>
+    <t>React and Redux</t>
+  </si>
+  <si>
+    <t>Why Redux?</t>
+  </si>
+  <si>
+    <t>Redux at its Core</t>
+  </si>
+  <si>
+    <t>Architect a Redux Store</t>
+  </si>
+  <si>
+    <t>Redux Middleware</t>
+  </si>
+  <si>
+    <t>Readable</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>Up and Running with React Native</t>
+  </si>
+  <si>
+    <t>React vs React Native</t>
+  </si>
+  <si>
+    <t>Styling and Layout</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Native Features</t>
+  </si>
+  <si>
+    <t>Steps to take after Udacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register at </t>
+  </si>
+  <si>
+    <t>https://laborx.co/</t>
+  </si>
+  <si>
+    <t>https://www.meteor.io/jobs/#248108a5-c05b-42d8-ae65-07bc0ca69438</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2347,8 +2427,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2447,8 +2547,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="92">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2510,6 +2615,26 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -2522,16 +2647,104 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2544,17 +2757,27 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2562,21 +2785,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L74" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L74" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:L74"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Section"/>
     <tableColumn id="2" name="Core"/>
     <tableColumn id="3" name="ID"/>
     <tableColumn id="4" name="Sub Section"/>
-    <tableColumn id="5" name="Time (hours)" dataDxfId="5"/>
-    <tableColumn id="9" name="Planned Date" dataDxfId="3"/>
+    <tableColumn id="5" name="Time (hours)" dataDxfId="17"/>
+    <tableColumn id="9" name="Planned Date" dataDxfId="16"/>
     <tableColumn id="6" name="Status"/>
     <tableColumn id="7" name="Re-Do"/>
     <tableColumn id="10" name="Column1"/>
     <tableColumn id="8" name="Actual Finish Date"/>
     <tableColumn id="11" name="Column2"/>
-    <tableColumn id="12" name="Column3" dataDxfId="4"/>
+    <tableColumn id="12" name="Column3" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:L74" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+  <autoFilter ref="A1:L74"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Section" dataDxfId="12"/>
+    <tableColumn id="2" name="Core" dataDxfId="11"/>
+    <tableColumn id="3" name="ID" dataDxfId="10"/>
+    <tableColumn id="4" name="Sub Section" dataDxfId="9"/>
+    <tableColumn id="5" name="Time (hours)" dataDxfId="8"/>
+    <tableColumn id="9" name="Planned Date" dataDxfId="7"/>
+    <tableColumn id="6" name="Status" dataDxfId="6"/>
+    <tableColumn id="7" name="Re-Do" dataDxfId="5"/>
+    <tableColumn id="10" name="Column1" dataDxfId="4"/>
+    <tableColumn id="8" name="Actual Finish Date" dataDxfId="3"/>
+    <tableColumn id="11" name="Column2" dataDxfId="2"/>
+    <tableColumn id="12" name="Column3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2956,8 +3200,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3540,7 +3784,7 @@
       <c r="F34" s="12">
         <v>42990</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="37" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="13" t="s">
@@ -3586,7 +3830,7 @@
       <c r="F36" s="12">
         <v>42991</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3603,7 +3847,7 @@
       <c r="F37" s="12">
         <v>42991</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="37" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -3623,7 +3867,7 @@
       <c r="F38" s="12">
         <v>42991</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3640,7 +3884,7 @@
       <c r="F39" s="12">
         <v>42991</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3653,7 +3897,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="12"/>
-      <c r="G40" t="s">
+      <c r="G40" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3668,7 +3912,7 @@
         <v>2.5</v>
       </c>
       <c r="F41" s="12">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="G41" t="s">
         <v>21</v>
@@ -3688,7 +3932,7 @@
         <v>2.5</v>
       </c>
       <c r="F42" s="12">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
@@ -3708,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="12">
-        <v>42993</v>
+        <v>43002</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -3725,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="12">
-        <v>42993</v>
+        <v>43002</v>
       </c>
       <c r="G44" t="s">
         <v>21</v>
@@ -3742,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="12">
-        <v>42994</v>
+        <v>43003</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
@@ -3762,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12">
-        <v>42995</v>
+        <v>43003</v>
       </c>
       <c r="G46" t="s">
         <v>21</v>
@@ -3779,7 +4023,7 @@
         <v>1.5</v>
       </c>
       <c r="F47" s="12">
-        <v>42995</v>
+        <v>43003</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -3796,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="12">
-        <v>42995</v>
+        <v>43003</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -3818,7 +4062,7 @@
         <v>1.5</v>
       </c>
       <c r="F49" s="12">
-        <v>42995</v>
+        <v>43003</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
@@ -3836,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="12">
-        <v>42995</v>
+        <v>43003</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
@@ -3854,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="12">
-        <v>42996</v>
+        <v>43003</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
@@ -3872,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="12">
-        <v>42996</v>
+        <v>43003</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -3890,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="12">
-        <v>42996</v>
+        <v>43003</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -3908,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="12">
-        <v>42996</v>
+        <v>43003</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -3923,7 +4167,9 @@
         <v>43</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="12">
+        <v>43003</v>
+      </c>
       <c r="G55" t="s">
         <v>22</v>
       </c>
@@ -4003,11 +4249,11 @@
       <c r="E60" s="1">
         <v>2</v>
       </c>
-      <c r="F60" s="12">
-        <v>42997</v>
+      <c r="F60" s="44">
+        <v>42999</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4021,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="12">
-        <v>42998</v>
+        <v>43004</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -4038,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="12">
-        <v>42999</v>
+        <v>43005</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -4055,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="12">
-        <v>43000</v>
+        <v>43006</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -4072,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="12">
-        <v>43001</v>
+        <v>43007</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -4089,7 +4335,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="12">
-        <v>43002</v>
+        <v>43008</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
@@ -4106,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="12">
-        <v>43003</v>
+        <v>43009</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
@@ -4123,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="12">
-        <v>43003</v>
+        <v>43009</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -4140,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="12">
-        <v>43003</v>
+        <v>43009</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
@@ -4155,7 +4401,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="12">
-        <v>43004</v>
+        <v>43010</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -4191,7 +4437,7 @@
         <v>1.5</v>
       </c>
       <c r="F71" s="12">
-        <v>43005</v>
+        <v>43011</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
@@ -4208,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="12">
-        <v>43005</v>
+        <v>43011</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
@@ -4225,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="12">
-        <v>43005</v>
+        <v>43012</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -4240,7 +4486,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="12">
-        <v>43006</v>
+        <v>43012</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -4254,7 +4500,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H75:H1048576 G1:G74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5137,4 +5383,1342 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="38" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13">
+        <v>4</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1">
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H75:H1048576 G1:G74">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>